--- a/old_image/communication.xlsx
+++ b/old_image/communication.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="266">
   <si>
     <t>Path</t>
   </si>
@@ -452,7 +452,7 @@
     <t>Communication.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | suspended | aborted | completed | entered-in-error</t>
+    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The status of the transmission.</t>
@@ -532,7 +532,7 @@
     <t>Communication.priority</t>
   </si>
   <si>
-    <t>Message urgency</t>
+    <t>routine | urgent | asap | stat</t>
   </si>
   <si>
     <t>Characterizes how quickly the planned or in progress communication must be addressed. Includes concepts such as stat, urgent, routine.</t>
@@ -681,10 +681,13 @@
 </t>
   </si>
   <si>
-    <t>Message recipient</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, care team or device) which was the target of the communication. If receipts need to be tracked by an individual, a separate resource instance will need to be created for each recipient.  Multiple recipient communications are intended where either receipts are not tracked (e.g. a mass mail-out) or a receipt is captured in aggregate (all emails confirmed received by a particular time).</t>
+    <t>Who the information is shared with</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, care team or device) which is the target of the communication.</t>
+  </si>
+  <si>
+    <t>If receipts need to be tracked by an individual, a separate resource instance will need to be created for each recipient.  Multiple recipient communications are intended where either receipts are not tracked (e.g. a mass mail-out) or a receipt is captured in aggregate (all emails confirmed received by a particular time).</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -700,10 +703,10 @@
 </t>
   </si>
   <si>
-    <t>Message sender</t>
-  </si>
-  <si>
-    <t>The entity (e.g. person, organization, clinical information system, or device) which was the source of the communication.</t>
+    <t>Who shares the information</t>
+  </si>
+  <si>
+    <t>The entity (e.g. person, organization, clinical information system, or device) which is the source of the communication.</t>
   </si>
   <si>
     <t>Communication.reasonCode</t>
@@ -992,7 +995,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.08203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3969,7 +3972,9 @@
       <c r="L28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
@@ -4033,10 +4038,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4044,7 +4049,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4067,13 +4072,13 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4124,7 +4129,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4139,10 +4144,10 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4150,7 +4155,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4176,13 +4181,13 @@
         <v>150</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4211,10 +4216,10 @@
         <v>154</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>39</v>
@@ -4232,7 +4237,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4247,18 +4252,18 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4284,10 +4289,10 @@
         <v>124</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4338,7 +4343,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4353,18 +4358,18 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4387,13 +4392,13 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4444,7 +4449,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4456,7 +4461,7 @@
         <v>39</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>39</v>
@@ -4470,7 +4475,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4493,13 +4498,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4550,7 +4555,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4571,12 +4576,12 @@
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4605,7 +4610,7 @@
         <v>94</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>96</v>
@@ -4658,7 +4663,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4679,16 +4684,16 @@
         <v>39</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4710,10 +4715,10 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -4768,7 +4773,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4794,7 +4799,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4817,16 +4822,16 @@
         <v>39</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -4876,7 +4881,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -4902,7 +4907,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4925,13 +4930,13 @@
         <v>39</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4982,7 +4987,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4997,7 +5002,7 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>39</v>
